--- a/MedicalLink/Templates/BC_34_ThongKeSuDungDichVuUngBuou_TongHop.xlsx
+++ b/MedicalLink/Templates/BC_34_ThongKeSuDungDichVuUngBuou_TongHop.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>STT</t>
   </si>
@@ -96,6 +96,12 @@
   </si>
   <si>
     <t>BÁO CÁO THỐNG KÊ TỔNG HỢP SỬ DỤNG DỊCH VỤ - BỆNH VIỆN UNG BƯỚU</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA].LOAIDOITUONG</t>
+  </si>
+  <si>
+    <t>Đối tượng:</t>
   </si>
 </sst>
 </file>
@@ -238,7 +244,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -308,6 +314,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -611,7 +620,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,6 +677,16 @@
       <c r="F4" s="25"/>
       <c r="G4" s="10"/>
       <c r="H4" s="18"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C5" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
     </row>
     <row r="7" spans="1:8" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
